--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1345705.529694905</v>
+        <v>1343328.902747539</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228319</v>
+        <v>416855.1052283203</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>72.94942429078156</v>
       </c>
       <c r="D2" t="n">
-        <v>327.6671544780623</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>49.95102278792455</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -877,10 +877,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>282.017965224019</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>198.9430992003371</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>323.8408286396437</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>85.45564210299004</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>153.7312730021083</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>110.4281445158647</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,7 +1148,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>287.8748656564467</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>24.55276019063764</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>139.6886855406279</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>100.0416311957212</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>4.713266813875332e-12</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833345</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>111.5512144998715</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699769</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>182.6625718220546</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2090,10 +2090,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>4.019807611467519</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>110.0177171766845</v>
+        <v>145.4210480229358</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365927</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>101.9154861872842</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2564,10 +2564,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182171</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>113.4877306469557</v>
+        <v>99.97427419833348</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,13 +2956,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>19.91555826189108</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,16 +3193,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>11.56087338713413</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>19.91555826188567</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892489</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>168.4805514670954</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,10 +3667,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.9742741983368</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>94.30373791808249</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986295</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>1.799772605714874</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1644.250531453059</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="C2" t="n">
-        <v>1275.288014512648</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>944.3110907974333</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974333</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
         <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X2" t="n">
-        <v>1644.250531453059</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y2" t="n">
-        <v>1644.250531453059</v>
+        <v>918.0161179218646</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310615</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625333</v>
+        <v>638.329617049676</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217535</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118699</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>565.4415891498746</v>
+        <v>388.1694341876314</v>
       </c>
       <c r="C4" t="n">
-        <v>396.5054062219677</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D4" t="n">
-        <v>396.5054062219677</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E4" t="n">
-        <v>248.5923126395746</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F4" t="n">
-        <v>101.7023651416643</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>101.7023651416643</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>101.7023651416643</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1048.115628253779</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V4" t="n">
-        <v>793.431140047892</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W4" t="n">
-        <v>793.431140047892</v>
+        <v>388.1694341876314</v>
       </c>
       <c r="X4" t="n">
-        <v>565.4415891498746</v>
+        <v>388.1694341876314</v>
       </c>
       <c r="Y4" t="n">
-        <v>565.4415891498746</v>
+        <v>388.1694341876314</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2361.386702945269</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="C5" t="n">
-        <v>1992.424186004858</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D5" t="n">
-        <v>1634.158487398107</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="X5" t="n">
-        <v>2562.339328400155</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="Y5" t="n">
-        <v>2562.339328400155</v>
+        <v>1545.062936918765</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4641,31 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>815.1145481251083</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M6" t="n">
-        <v>1178.376567084328</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1565.661695681274</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>919.6966947956497</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="C7" t="n">
-        <v>750.7605118677428</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D7" t="n">
-        <v>600.6438724554071</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>452.7307788730139</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1550.127289667437</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1550.127289667437</v>
+        <v>1481.162005930953</v>
       </c>
       <c r="T7" t="n">
-        <v>1550.127289667437</v>
+        <v>1481.162005930953</v>
       </c>
       <c r="U7" t="n">
-        <v>1550.127289667437</v>
+        <v>1192.043668434791</v>
       </c>
       <c r="V7" t="n">
-        <v>1550.127289667437</v>
+        <v>937.3591802289043</v>
       </c>
       <c r="W7" t="n">
-        <v>1550.127289667437</v>
+        <v>647.9420101919436</v>
       </c>
       <c r="X7" t="n">
-        <v>1322.137738769419</v>
+        <v>419.9524592939263</v>
       </c>
       <c r="Y7" t="n">
-        <v>1101.345159625889</v>
+        <v>199.1598801503962</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.907945722349</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.945428781938</v>
+        <v>1275.288014512647</v>
       </c>
       <c r="D8" t="n">
-        <v>764.6797301751872</v>
+        <v>1163.744434193592</v>
       </c>
       <c r="E8" t="n">
-        <v>764.6797301751872</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F8" t="n">
-        <v>757.7342294259837</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G8" t="n">
-        <v>342.0294791502726</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X8" t="n">
-        <v>1878.507785786471</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.507785786471</v>
+        <v>1644.250531453059</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380218</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694936</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>689.9034178578802</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C10" t="n">
-        <v>520.9672349299733</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8505955176375</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>222.9375019352444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>76.04755443733407</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074498</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074498</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074498</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.761631868611</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.34446183165</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="X10" t="n">
-        <v>1092.34446183165</v>
+        <v>342.4631083446094</v>
       </c>
       <c r="Y10" t="n">
-        <v>871.5518826881199</v>
+        <v>201.3634259803388</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5039,13 +5039,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5081,10 +5081,10 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5127,19 +5127,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348531</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>2299.457522348531</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1052.829365488567</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>883.8931825606599</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>733.7765431483241</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>585.863449565931</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2227.361618603201</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1972.677130397314</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1683.259960360354</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1455.270409462336</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1234.477830318806</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5315,13 +5315,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998238</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998238</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797186</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2334.285089135946</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2045.209862480144</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5507,10 +5507,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111712</v>
@@ -5519,46 +5519,46 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>197.0043242297667</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5677,46 +5677,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797699</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T19" t="n">
-        <v>2079.600600930059</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U19" t="n">
-        <v>1790.525374274257</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V19" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W19" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,40 +5762,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452613</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400701</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400701</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400701</v>
+        <v>407.9027098310069</v>
       </c>
       <c r="E22" t="n">
-        <v>513.8536007400701</v>
+        <v>407.9027098310069</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611857</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138399</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703098</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5975,31 +5975,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273905</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>734.6461798836018</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>734.6461798836018</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>734.6461798836018</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.2946447138415</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239597</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397185</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.21291626627</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1522.21291626627</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.2946447138415</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>747.3584617859347</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>747.3584617859347</v>
+        <v>194.8007783998239</v>
       </c>
       <c r="E28" t="n">
-        <v>599.4453682035415</v>
+        <v>194.8007783998239</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138415</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6476,34 +6476,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,22 +6534,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.7825789706076</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>391.8463960427007</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>241.729756630365</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797189</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2426.846358063199</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2243.991523718104</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2024.390058741045</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1735.314832085242</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1480.630343879355</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.213173842395</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>963.2236229443774</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.4310438008473</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,16 +6777,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.4550657171305</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>564.5188827892237</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>414.4022433768879</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349513</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063204</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718109</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741049</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,28 +7160,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
@@ -7190,31 +7190,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282754</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458823</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="41">
@@ -7391,40 +7391,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.917417812163</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,25 +7637,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7664,10 +7664,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7731,22 +7731,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.793114229131</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468418</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8061,25 +8061,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>45.76488231024558</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>211.0329012241556</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,31 +8292,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>224.335519760177</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>168.7434581780641</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878338</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>265.0304328515144</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154984</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-5.64553556075546e-14</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>45.37941682721004</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>65.5498640939354</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>105.8542358274168</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>43.26526345295439</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>34.74287850523362</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>144.5956654067448</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>35.40333084624676</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>44.51847645928501</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>31.93331737597553</v>
+        <v>45.44677382459777</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.45968844822927</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>134.873089259435</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.45968844823601</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,10 +25555,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.45968844823237</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -25567,7 +25567,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>191.8807364711616</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>146.8157004124975</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194174</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>934318.0292936305</v>
+        <v>934318.0292936304</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>934318.0292936304</v>
+        <v>934318.0292936303</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>934318.0292936305</v>
+        <v>934318.0292936302</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>934318.0292936305</v>
+        <v>934318.0292936303</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>934318.0292936305</v>
+        <v>934318.0292936303</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>934318.0292936304</v>
+        <v>934318.0292936305</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>934318.0292936305</v>
+        <v>934318.0292936304</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>934318.0292936304</v>
+        <v>934318.0292936303</v>
       </c>
     </row>
     <row r="14">
@@ -26317,34 +26317,34 @@
         <v>492625.0619185701</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185702</v>
       </c>
       <c r="E2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="F2" t="n">
         <v>484287.9598140035</v>
-      </c>
-      <c r="F2" t="n">
-        <v>484287.9598140037</v>
       </c>
       <c r="G2" t="n">
         <v>484287.9598140038</v>
       </c>
       <c r="H2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="I2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="J2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="K2" t="n">
         <v>484287.9598140037</v>
       </c>
-      <c r="I2" t="n">
-        <v>484287.9598140037</v>
-      </c>
-      <c r="J2" t="n">
-        <v>484287.9598140038</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="M2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="L2" t="n">
-        <v>484287.9598140037</v>
-      </c>
-      <c r="M2" t="n">
-        <v>484287.9598140037</v>
       </c>
       <c r="N2" t="n">
         <v>484287.9598140036</v>
@@ -26353,7 +26353,7 @@
         <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140038</v>
+        <v>484287.9598140037</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245453</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>1.797263848857256e-10</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="G4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707349</v>
+        <v>6897.42449670735</v>
       </c>
       <c r="I4" t="n">
+        <v>6897.424496707368</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="O4" t="n">
         <v>6897.424496707361</v>
       </c>
-      <c r="J4" t="n">
-        <v>6897.424496707349</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.42449670735</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>6897.42449670736</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6897.424496707361</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-846974.2209288196</v>
+        <v>-846974.2209288192</v>
       </c>
       <c r="C6" t="n">
         <v>267777.5626471004</v>
       </c>
       <c r="D6" t="n">
-        <v>267777.5626471001</v>
+        <v>267777.5626471005</v>
       </c>
       <c r="E6" t="n">
-        <v>-131217.4361311562</v>
+        <v>-131252.1740565923</v>
       </c>
       <c r="F6" t="n">
-        <v>376268.0054933891</v>
+        <v>376233.2675679532</v>
       </c>
       <c r="G6" t="n">
-        <v>376268.0054933893</v>
+        <v>376233.2675679536</v>
       </c>
       <c r="H6" t="n">
-        <v>376268.0054933891</v>
+        <v>376233.2675679535</v>
       </c>
       <c r="I6" t="n">
-        <v>376268.0054933893</v>
+        <v>376233.2675679533</v>
       </c>
       <c r="J6" t="n">
-        <v>208662.8276834067</v>
+        <v>208628.089757971</v>
       </c>
       <c r="K6" t="n">
-        <v>376268.0054933892</v>
+        <v>376233.2675679535</v>
       </c>
       <c r="L6" t="n">
-        <v>376268.0054933893</v>
+        <v>376233.2675679533</v>
       </c>
       <c r="M6" t="n">
-        <v>243660.7117644626</v>
+        <v>243625.9738390268</v>
       </c>
       <c r="N6" t="n">
-        <v>376268.0054933892</v>
+        <v>376233.2675679534</v>
       </c>
       <c r="O6" t="n">
-        <v>376268.0054933892</v>
+        <v>376233.2675679533</v>
       </c>
       <c r="P6" t="n">
-        <v>376268.0054933893</v>
+        <v>376233.2675679536</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175396</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,10 +26811,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.910608224134</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292.323467480226</v>
       </c>
       <c r="D2" t="n">
-        <v>27.01588714262061</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27543,19 +27543,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>54.845572415976</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>4.50503311257205</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>183.7907424631435</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>41.4320631313638</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>16.10193031658358</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>40.93118735962912</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>244.2548971048182</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>13.14368690595865</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987943</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>141.7538398541665</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>78.89596781146693</v>
       </c>
     </row>
     <row r="11">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-3.109469020701095e-12</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28810,10 +28810,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28968,7 +28968,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-2.920938348146081e-12</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -29019,7 +29019,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>-9.297825982088264e-14</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29436,7 +29436,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29715,7 +29715,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30198,7 +30198,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>-3.109469020701095e-12</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30417,7 +30417,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>-9.297825982088264e-14</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,25 +31203,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31291,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31312,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31361,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31373,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31467,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31476,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181061</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491901</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767382</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342227</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166597</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.567854187451</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31674,46 +31674,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069564</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,22 +31847,22 @@
         <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>613.2529048371032</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>390.1398273256881</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742437</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>302.3396059822671</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,7 +32090,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,7 +32099,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,31 +32312,31 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963282</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>499.3768644016574</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>181.9330708814852</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>520.337216085408</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M33" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>698.850866879865</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>235.5705495535876</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>535.8585467435948</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,34 +34451,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>661.8411144019728</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>343.4452429480957</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>546.4575832202787</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0158803980272</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>535.6747904601046</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35106,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225038</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.806230106751</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376318</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949729</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402558</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939913</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313188</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378504</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820407</v>
+        <v>631.9617651335549</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928741</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961232</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235324</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870598</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805409</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35495,22 +35495,22 @@
         <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>256.1654199113578</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>163.7852262023929</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,7 +35738,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191269</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010451</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902399</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.348781916454</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>368.035152318324</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>44.0916319071262</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>377.7409716409636</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>556.7168329578467</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>92.97430510914316</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060437</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>519.7070804799545</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
